--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_145.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_145.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,644 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4181184668989547</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
+          <t>[['F', 'F', 'F', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(46.93228, 54.037586)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:00.325509', '0:00:04.348503')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.590000', '0:00:09.550000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_9</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1785714285714285</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_21</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1080745341614907</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['C', 'C/7', 'C/b7'], ['F', 'F:min', 'C'], ['C', 'C/b7', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(75.58, 86.06)]</t>
+          <t>[['G/3', 'G', 'G'], ['C', 'C:min', 'G/3'], ['G/3', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:52.386000', '0:00:56.294000'), ('0:00:38.588000', '0:00:43.202000'), ('0:00:35.532000', '0:00:40.124000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:01.366439', '0:00:05.255782'), ('0:00:15.565442', '0:00:19.466394'), ('0:00:05.894331', '0:00:09.748843')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09125874125874125</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0945054945054945</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(53.32, 61.84), (66.8, 73.56)]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.155, 20.379), (39.976, 44.64)]</t>
+          <t>[('0:01:00.800000', '0:01:09.040000'), ('0:01:05.640000', '0:01:10.540000'), ('0:01:17.720000', '0:01:28'), ('0:00:06.980000', '0:00:13.380000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:19.500000', '0:00:30.320000'), ('0:01:12.420000', '0:01:15.580000'), ('0:01:14.400000', '0:01:21.680000'), ('0:01:15.580000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2777777777777778</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[['F', 'C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
+          <t>[('0:01:08.150589', '0:01:20.236575')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:18.071496', '0:00:25.606371')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07184170471841705</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'Eb', 'Ab:min', 'Ab:min']]</t>
-        </is>
+          <t>isophonics_252</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2047619047619048</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Db', 'C', 'F:min', 'F:min/5']]</t>
+          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.07, 9.13)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.282925, 46.388231)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+          <t>[('0:01:30.128000', '0:01:39.300000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:39.580000', '0:00:48.900000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08907563025210083</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.64, 10.36), (57.48, 64.58)]</t>
+          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(66.92, 68.18), (65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:26.130000', '0:00:29.490000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:04.580000', '0:01:13.880000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3375</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.995918, 46.610521)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab/5', 'Eb', 'Bb/3']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.867, 26.66)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(15.014, 24.195)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2719298245614035</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.336043, 30.271443)]</t>
+          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.16, 19.2), (49.08, 68.32)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.72, 20.92), (49.74, 69.8)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:09.162102', '0:00:15.791400')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>isophonics_166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['G', 'G', 'D:7']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98), (235.32, 237.58)]</t>
+          <t>[['E:maj/G#', 'E:maj/B', 'B:7']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(20.56, 23.94), (9.4, 16.5)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.440395', '0:00:12.905056')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:03:52.440000', '0:04:00.260000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32), (61.48, 63.58)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(43.54, 60.0), (127.6, 132.4)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.193452380952381</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D/b7', 'G/3', 'D', 'G', 'D/3']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(23.703945, 29.172244)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(217.493, 223.713)]</t>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(64.52, 66.82)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(64.28, 71.0)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07984496124031007</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(19.38, 25.36), (13.42, 19.38), (20.9, 26.9)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(73.0, 82.74), (22.5, 29.78), (0.24, 7.22)]</t>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(129.06, 134.2)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(2.86, 5.3)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
